--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P11_trail9 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P11_trail9 Features.xlsx
@@ -3374,7 +3374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3385,29 +3385,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3428,115 +3426,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3553,72 +3541,66 @@
         <v>4.926382637909075e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1.642552119487472</v>
+        <v>3.096970059735058e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>4.590924320874875</v>
+        <v>2.478834771396434e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3.096970059735058e-07</v>
+        <v>-0.07870476195135089</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.478834771396434e-06</v>
+        <v>0.347156215707806</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.07870476195135089</v>
+        <v>0.1264617962610768</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.347156215707806</v>
+        <v>1.809830962418563</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1264617962610768</v>
+        <v>1.723235498847355</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.751316787630226</v>
+        <v>4.013004546930398</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.723235498847355</v>
+        <v>8.833666357574368e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.013004546930398</v>
+        <v>189658229.6345893</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>8.833666357574368e-16</v>
+        <v>6.224410592999928e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>189658229.6345893</v>
+        <v>31.77491348983489</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>6.224410592999928e-07</v>
+        <v>0.0001675445138075639</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>31.77491348983489</v>
+        <v>8.737795604697512</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001675445138075639</v>
+        <v>1.321049680268464</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.737795604697512</v>
+        <v>0.01279186815283642</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.321049680268464</v>
+        <v>2.771049990426719</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01279186815283642</v>
+        <v>0.9528951329182764</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.771049990426719</v>
+        <v>1.615412980933098</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9528951329182764</v>
+        <v>18</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.615412980933098</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2101552847049348</v>
       </c>
     </row>
@@ -3633,72 +3615,66 @@
         <v>4.112367445733371e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.7707991403191906</v>
+        <v>2.264356848120584e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.7802676558795936</v>
+        <v>2.475798933401075e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.264356848120584e-07</v>
+        <v>-0.05577741745344938</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.475798933401075e-06</v>
+        <v>0.3333595562983228</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.05577741745344938</v>
+        <v>0.1140422148758651</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3333595562983228</v>
+        <v>1.795081210854861</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1140422148758651</v>
+        <v>1.760841846665804</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.729182930892869</v>
+        <v>4.543831991313218</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.760841846665804</v>
+        <v>1.244105922166162e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.543831991313218</v>
+        <v>131999334.3286456</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.244105922166162e-15</v>
+        <v>8.875174728723375e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>131999334.3286456</v>
+        <v>21.6770829526365</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>8.875174728723375e-07</v>
+        <v>0.0001657333741963774</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>21.6770829526365</v>
+        <v>8.784640421918663</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001657333741963774</v>
+        <v>1.379026265145715</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.784640421918663</v>
+        <v>0.01278962913027896</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.379026265145715</v>
+        <v>2.737434860557821</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01278962913027896</v>
+        <v>0.9532159404435888</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.737434860557821</v>
+        <v>1.701874313893538</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9532159404435888</v>
+        <v>18</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.701874313893538</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2248168518429303</v>
       </c>
     </row>
@@ -3713,72 +3689,66 @@
         <v>3.712902729248129e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.2619719797329447</v>
+        <v>1.648610722025698e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.9800263629220458</v>
+        <v>2.474087626056894e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.648610722025698e-07</v>
+        <v>-0.03260304427523129</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.474087626056894e-06</v>
+        <v>0.3049219198882108</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.03260304427523129</v>
+        <v>0.09391056316713445</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3049219198882108</v>
+        <v>1.78912255648866</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.09391056316713445</v>
+        <v>1.842729881214143</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.72260660188096</v>
+        <v>3.921121140776013</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.842729881214143</v>
+        <v>1.691946828036682e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.921121140776013</v>
+        <v>96379369.38619705</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.691946828036682e-15</v>
+        <v>1.214254978438203e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>96379369.38619705</v>
+        <v>15.71646505737648</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.214254978438203e-06</v>
+        <v>0.0001596608387016618</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>15.71646505737648</v>
+        <v>8.932035815016105</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001596608387016618</v>
+        <v>1.345337528174667</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.932035815016105</v>
+        <v>0.01273794349110315</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.345337528174667</v>
+        <v>2.769433585822589</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01273794349110315</v>
+        <v>0.9550645554984878</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.769433585822589</v>
+        <v>1.697734010996281</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9550645554984878</v>
+        <v>18</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.697734010996281</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2094015302928888</v>
       </c>
     </row>
@@ -3793,72 +3763,66 @@
         <v>3.561243911538505e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.1119543816595313</v>
+        <v>1.202900727805831e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.317505984410486</v>
+        <v>2.473255958531296e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.202900727805831e-07</v>
+        <v>-0.01440413485568931</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.473255958531296e-06</v>
+        <v>0.275131311789685</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.01440413485568931</v>
+        <v>0.07583301456219588</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.275131311789685</v>
+        <v>1.777534304524543</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.07583301456219588</v>
+        <v>1.760300997640568</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.70462125095992</v>
+        <v>3.775684609845692</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.760300997640568</v>
+        <v>1.824802262558944e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.775684609845692</v>
+        <v>89492436.25140649</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.824802262558944e-15</v>
+        <v>1.304168777370272e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>89492436.25140649</v>
+        <v>14.61465180820737</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.304168777370272e-06</v>
+        <v>0.0001559164443483885</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>14.61465180820737</v>
+        <v>9.138320343394501</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001559164443483885</v>
+        <v>1.276090927891386</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.138320343394501</v>
+        <v>0.01302041055651954</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.276090927891386</v>
+        <v>2.74170824839338</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01302041055651954</v>
+        <v>0.9555944626322456</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.74170824839338</v>
+        <v>1.703902968920673</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9555944626322456</v>
+        <v>7</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.703902968920673</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1926909504977158</v>
       </c>
     </row>
@@ -3873,72 +3837,66 @@
         <v>3.524729852088017e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.09706805166784735</v>
+        <v>1.120089695925594e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.322048607941046</v>
+        <v>2.472979857736092e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.120089695925594e-07</v>
+        <v>-0.002186804765895708</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.472979857736092e-06</v>
+        <v>0.2542586619497666</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.002186804765895708</v>
+        <v>0.06461662326934049</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2542586619497666</v>
+        <v>1.770051495144084</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.06461662326934049</v>
+        <v>1.715695721254679</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.695812141833063</v>
+        <v>3.77879947053986</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.715695721254679</v>
+        <v>1.8217951370278e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.77879947053986</v>
+        <v>91050808.21093026</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.8217951370278e-15</v>
+        <v>1.283222499763264e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>91050808.21093026</v>
+        <v>15.10313654423461</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.283222499763264e-06</v>
+        <v>0.000155944553902828</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>15.10313654423461</v>
+        <v>9.294127866388479</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.000155944553902828</v>
+        <v>1.256248690419849</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.294127866388479</v>
+        <v>0.01347061731735737</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.256248690419849</v>
+        <v>2.680030627397363</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01347061731735737</v>
+        <v>0.9553793460978002</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.680030627397363</v>
+        <v>1.714338906088875</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9553793460978002</v>
+        <v>12</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.714338906088875</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1877192745776871</v>
       </c>
     </row>
@@ -3953,72 +3911,66 @@
         <v>3.52984194782788e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.09356172055245109</v>
+        <v>1.120089695925594e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.329652541555725</v>
+        <v>2.473053990420572e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.120089695925594e-07</v>
+        <v>0.005719648126264792</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.473053990420572e-06</v>
+        <v>0.2423433119837259</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.005719648126264792</v>
+        <v>0.05874882770825314</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2423433119837259</v>
+        <v>1.767644682401825</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.05874882770825314</v>
+        <v>1.680634303284108</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.691857017899277</v>
+        <v>3.778377774983135</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.680634303284108</v>
+        <v>1.822201811972003e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.778377774983135</v>
+        <v>91462719.36278598</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.822201811972003e-15</v>
+        <v>1.276929931746559e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>91462719.36278598</v>
+        <v>15.24349994228538</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.276929931746559e-06</v>
+        <v>0.0001602535133777689</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>15.24349994228538</v>
+        <v>9.435166726277473</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001602535133777689</v>
+        <v>1.270712589741576</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.435166726277473</v>
+        <v>0.01426614774643247</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.270712589741576</v>
+        <v>2.611290562806781</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01426614774643247</v>
+        <v>0.955989359874473</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.611290562806781</v>
+        <v>1.711444651168831</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.955989359874473</v>
+        <v>12</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.711444651168831</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.186543068971629</v>
       </c>
     </row>
@@ -4395,7 +4347,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.435148536495348</v>
+        <v>1.436584789870738</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.48762415288126</v>
@@ -4484,7 +4436,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.439533267510338</v>
+        <v>1.437142979850341</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.143365267355032</v>
@@ -4573,7 +4525,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.447405620640736</v>
+        <v>1.44400178628172</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.470609220972655</v>
@@ -4662,7 +4614,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.438580307263071</v>
+        <v>1.436049367959541</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.620220755690053</v>
@@ -4751,7 +4703,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.438987475156939</v>
+        <v>1.432427444078032</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.751935334819035</v>
@@ -4840,7 +4792,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.432458292173969</v>
+        <v>1.428657553058936</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.654854807500458</v>
@@ -4929,7 +4881,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.430822830757451</v>
+        <v>1.421444678448546</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.475119233083379</v>
@@ -5018,7 +4970,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.418821215110125</v>
+        <v>1.415250240622846</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.533927758429503</v>
@@ -5107,7 +5059,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.425988855035967</v>
+        <v>1.418611531465635</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.453661563137741</v>
@@ -5196,7 +5148,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.439992541567112</v>
+        <v>1.43435687867412</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.453540249614717</v>
@@ -5285,7 +5237,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.440298533473636</v>
+        <v>1.432721467048878</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.40504829531295</v>
@@ -5374,7 +5326,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.436314271215709</v>
+        <v>1.425869707162215</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.555898920565571</v>
@@ -5463,7 +5415,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.441118015763735</v>
+        <v>1.429298481086627</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.544533807363457</v>
@@ -5552,7 +5504,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.45375221901683</v>
+        <v>1.438534146166319</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.580562728815727</v>
@@ -5641,7 +5593,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.452342304231421</v>
+        <v>1.438023416907702</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.560842528964888</v>
@@ -5730,7 +5682,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.449414120893997</v>
+        <v>1.435627426776088</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.341009574257946</v>
@@ -5819,7 +5771,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.44161428861032</v>
+        <v>1.427357883463889</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.59106752851737</v>
@@ -5908,7 +5860,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.448526231392318</v>
+        <v>1.434800106047021</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.479933050143543</v>
@@ -5997,7 +5949,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.458963300881607</v>
+        <v>1.446458589333842</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.53739828703841</v>
@@ -6086,7 +6038,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.461984584614507</v>
+        <v>1.454184201518727</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.626537236316996</v>
@@ -6175,7 +6127,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.471191781366809</v>
+        <v>1.46159448896256</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.379948382915721</v>
@@ -6264,7 +6216,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.513962600359754</v>
+        <v>1.501433969873239</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.379713367137059</v>
@@ -6353,7 +6305,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.507964611287051</v>
+        <v>1.492630748776102</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.416763569382084</v>
@@ -6442,7 +6394,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.509226038087679</v>
+        <v>1.496047307956853</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.342369507845567</v>
@@ -6531,7 +6483,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.505152400378446</v>
+        <v>1.488881203971348</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.409313454716591</v>
@@ -6620,7 +6572,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.516581977079822</v>
+        <v>1.500878167835095</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.364836685219957</v>
@@ -6709,7 +6661,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.534712676966598</v>
+        <v>1.51410621453355</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.388232158038899</v>
@@ -6798,7 +6750,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.530076553879147</v>
+        <v>1.513464262450932</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.420239463569517</v>
@@ -6887,7 +6839,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.545935487875062</v>
+        <v>1.526352612969458</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.294548729716253</v>
@@ -6976,7 +6928,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.54793647214372</v>
+        <v>1.525976832174507</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.684603548535052</v>
@@ -7065,7 +7017,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.561414178606358</v>
+        <v>1.540441304640585</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.424548497586518</v>
@@ -7154,7 +7106,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.598585913426934</v>
+        <v>1.57235684702897</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.582919067406254</v>
@@ -7243,7 +7195,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.591065650962384</v>
+        <v>1.563781859853451</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.555448845019629</v>
@@ -7332,7 +7284,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.589687076656251</v>
+        <v>1.563342253808933</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.536091298483962</v>
@@ -7421,7 +7373,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.582183236426901</v>
+        <v>1.559375314056169</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.542591592147868</v>
@@ -7510,7 +7462,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.581027874200916</v>
+        <v>1.559741340145317</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.49578870554251</v>
@@ -7599,7 +7551,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.580163322102766</v>
+        <v>1.557106322874934</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.506893862908928</v>
@@ -7688,7 +7640,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.602591521921479</v>
+        <v>1.577962205742718</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.712372325791488</v>
@@ -7777,7 +7729,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.622907532741687</v>
+        <v>1.600863107184483</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.542703569416085</v>
@@ -7866,7 +7818,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.63392562988416</v>
+        <v>1.611759570431203</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.209539800880506</v>
@@ -7955,7 +7907,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.635149477062375</v>
+        <v>1.611658889628126</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.164891024571077</v>
@@ -8044,7 +7996,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.63972228731014</v>
+        <v>1.618227013548541</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.395611606945811</v>
@@ -8133,7 +8085,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.634896745344937</v>
+        <v>1.610468902869943</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.090813303128032</v>
@@ -8222,7 +8174,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.629244547337677</v>
+        <v>1.612002037035973</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.310221428327186</v>
@@ -8311,7 +8263,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.623587841832651</v>
+        <v>1.609882854925861</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.557522519297642</v>
@@ -8400,7 +8352,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.608739347299748</v>
+        <v>1.599978106631982</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.377385505248488</v>
@@ -8489,7 +8441,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.590664265005534</v>
+        <v>1.583086919501509</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.434875335831241</v>
@@ -8578,7 +8530,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.576659212843198</v>
+        <v>1.567516464591485</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.764408693141995</v>
@@ -8667,7 +8619,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.582111040830146</v>
+        <v>1.571507768203082</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.638261956261305</v>
@@ -8756,7 +8708,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.592677976552374</v>
+        <v>1.571660984633825</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.630331281109879</v>
@@ -8845,7 +8797,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.590057247068415</v>
+        <v>1.567236150877695</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.848383114866498</v>
@@ -9131,7 +9083,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.598530832260704</v>
+        <v>1.575978725476357</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.055434899708766</v>
@@ -9220,7 +9172,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.598816877400232</v>
+        <v>1.577399725745311</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.830005188920093</v>
@@ -9309,7 +9261,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.594917839271646</v>
+        <v>1.582085660455345</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.028057802457091</v>
@@ -9398,7 +9350,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.590116000132453</v>
+        <v>1.57822643551576</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.299249469428164</v>
@@ -9487,7 +9439,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.5895798514986</v>
+        <v>1.575576607244347</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.017627279712261</v>
@@ -9576,7 +9528,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.59061561123889</v>
+        <v>1.577244050699373</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.817522016223903</v>
@@ -9665,7 +9617,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.593931120219055</v>
+        <v>1.577275336755164</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.123640533306575</v>
@@ -9754,7 +9706,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.588680640922101</v>
+        <v>1.575663487596134</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.89874006494601</v>
@@ -9843,7 +9795,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.597101229570614</v>
+        <v>1.583632395123149</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.231886678340487</v>
@@ -9932,7 +9884,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.59110581823915</v>
+        <v>1.581618956548647</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.648836968473101</v>
@@ -10021,7 +9973,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.583904600812298</v>
+        <v>1.572477608716272</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.626745528014244</v>
@@ -10110,7 +10062,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.601872425423387</v>
+        <v>1.586870899190174</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.742022139753221</v>
@@ -10199,7 +10151,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.607498762123742</v>
+        <v>1.591896145705216</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.616187000571765</v>
@@ -10288,7 +10240,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.583978719582477</v>
+        <v>1.566700201519072</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.465903112228922</v>
@@ -10377,7 +10329,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.580128979969909</v>
+        <v>1.570741131792862</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.59323994822036</v>
@@ -10466,7 +10418,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.588649831742259</v>
+        <v>1.57775081153551</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.475963273942228</v>
@@ -10555,7 +10507,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.595495719605605</v>
+        <v>1.576140058746667</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.575948236875008</v>
@@ -10644,7 +10596,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.596807153648344</v>
+        <v>1.57249649790693</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.662124227615867</v>
@@ -10733,7 +10685,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.578135010702002</v>
+        <v>1.560297891450749</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.4419592208498</v>
@@ -10822,7 +10774,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.574737712078882</v>
+        <v>1.565912642327881</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.530057794368453</v>
@@ -10911,7 +10863,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.581675650475292</v>
+        <v>1.57125929846679</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.498146212142812</v>
@@ -11000,7 +10952,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.58606077681308</v>
+        <v>1.576054466337672</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.289275602799678</v>
@@ -11089,7 +11041,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.583622592006109</v>
+        <v>1.576626043410735</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.520325761057817</v>
@@ -11178,7 +11130,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.588776051768066</v>
+        <v>1.579367664765012</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.446000873668505</v>
@@ -11267,7 +11219,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.614318616682253</v>
+        <v>1.599083332547911</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.338475574677346</v>
@@ -11356,7 +11308,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.615603805724024</v>
+        <v>1.6068256945202</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.399960514571048</v>
@@ -11445,7 +11397,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.613654779943192</v>
+        <v>1.606660633405738</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.38851454686129</v>
@@ -11534,7 +11486,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.608680993628702</v>
+        <v>1.604365007639829</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.494141758423564</v>
@@ -11623,7 +11575,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.65021305888187</v>
+        <v>1.639859684809685</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.594524194211408</v>
@@ -11712,7 +11664,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.642546020581958</v>
+        <v>1.632239393659731</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.200095671420327</v>
@@ -11801,7 +11753,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.640385679923325</v>
+        <v>1.630063352281699</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.988883011500408</v>
@@ -11890,7 +11842,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.645385387378018</v>
+        <v>1.640412786990453</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.918479685763695</v>
@@ -11979,7 +11931,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.652312113538178</v>
+        <v>1.64169206322981</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.990105237578307</v>
@@ -12068,7 +12020,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.675106726256935</v>
+        <v>1.666737263252226</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.012514350744388</v>
@@ -12157,7 +12109,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.672205244916991</v>
+        <v>1.664546191614769</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.174161658701388</v>
@@ -12246,7 +12198,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.667626557400497</v>
+        <v>1.66231855757481</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.061432882144652</v>
@@ -12335,7 +12287,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.676430897365993</v>
+        <v>1.673934795933943</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.374453415593483</v>
@@ -12424,7 +12376,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.670789398069515</v>
+        <v>1.66855862979204</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.451021809256479</v>
@@ -12513,7 +12465,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.666285140906024</v>
+        <v>1.666065973291269</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.618818060273014</v>
@@ -12602,7 +12554,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.666147928241719</v>
+        <v>1.667684498008073</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.399733225227766</v>
@@ -12691,7 +12643,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.669158165663577</v>
+        <v>1.669293017757324</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.002597866535946</v>
@@ -12780,7 +12732,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.66614530196294</v>
+        <v>1.669772159084885</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.571013253160353</v>
@@ -12869,7 +12821,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.664935249156775</v>
+        <v>1.669084005502943</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.623831795913982</v>
@@ -12958,7 +12910,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.662643141840361</v>
+        <v>1.665395944421014</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.718418617004218</v>
@@ -13047,7 +12999,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.676663353259065</v>
+        <v>1.676250781032444</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.375733159447397</v>
@@ -13136,7 +13088,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.677893028312887</v>
+        <v>1.679930283416662</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.012068246154306</v>
@@ -13225,7 +13177,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.672186947437426</v>
+        <v>1.67649914231051</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.824551472309819</v>
@@ -13314,7 +13266,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.674195086629455</v>
+        <v>1.676755906070186</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.346374208888232</v>
@@ -13403,7 +13355,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.687761046336563</v>
+        <v>1.684847815751615</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.683557382079054</v>
@@ -13492,7 +13444,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.680973927984441</v>
+        <v>1.674271390470142</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.862906303013828</v>
@@ -13581,7 +13533,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.682073944844477</v>
+        <v>1.676612743544138</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.881196591532204</v>
@@ -13867,7 +13819,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.556894885770297</v>
+        <v>1.524084184864559</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.131320286979276</v>
@@ -13956,7 +13908,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.567334604589261</v>
+        <v>1.53394513258438</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.665810657045859</v>
@@ -14045,7 +13997,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.574034860454631</v>
+        <v>1.537033940124556</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.020204345183581</v>
@@ -14134,7 +14086,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.570705700863724</v>
+        <v>1.52987759985469</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.369725969115562</v>
@@ -14223,7 +14175,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.574423262117004</v>
+        <v>1.53820950358971</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.292474956060812</v>
@@ -14312,7 +14264,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.566550086497426</v>
+        <v>1.530362513163679</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.691493275975382</v>
@@ -14401,7 +14353,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.578007733043912</v>
+        <v>1.526771267724253</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.79583358896997</v>
@@ -14490,7 +14442,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.580144648239928</v>
+        <v>1.528826852324969</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.743026585615014</v>
@@ -14579,7 +14531,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.600899299179737</v>
+        <v>1.550169294178683</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.740324356421485</v>
@@ -14668,7 +14620,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.5980996662814</v>
+        <v>1.547225580529586</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.02886985489173</v>
@@ -14757,7 +14709,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.594974616001662</v>
+        <v>1.543162246143416</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.011949376054315</v>
@@ -14846,7 +14798,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.599266848717735</v>
+        <v>1.546426484378832</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.991502982039257</v>
@@ -14935,7 +14887,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.60096885927256</v>
+        <v>1.548561042522656</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.961986241708197</v>
@@ -15024,7 +14976,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.606138710233997</v>
+        <v>1.545689503964343</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.748831117207976</v>
@@ -15113,7 +15065,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.602195733294673</v>
+        <v>1.547980959580143</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.0203383728907</v>
@@ -15202,7 +15154,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.594342243357096</v>
+        <v>1.542311054141713</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.984618348715316</v>
@@ -15291,7 +15243,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.586500073026598</v>
+        <v>1.537163102606812</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.889900534864101</v>
@@ -15380,7 +15332,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.592073842404992</v>
+        <v>1.54167761492247</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.886895384124287</v>
@@ -15469,7 +15421,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.574250800622767</v>
+        <v>1.531785324954659</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.69805099923816</v>
@@ -15558,7 +15510,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.572992452733274</v>
+        <v>1.531127447717311</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.946382743047602</v>
@@ -15647,7 +15599,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.59059026100132</v>
+        <v>1.549134485797819</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.48847202555259</v>
@@ -15736,7 +15688,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.584281084544196</v>
+        <v>1.551702594579335</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.322492068024865</v>
@@ -15825,7 +15777,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.583155581790711</v>
+        <v>1.548545540457785</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.409935414826085</v>
@@ -15914,7 +15866,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.580346938314734</v>
+        <v>1.542903549556667</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.359720139456585</v>
@@ -16003,7 +15955,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.574931954277287</v>
+        <v>1.538198848225315</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.430633543513115</v>
@@ -16092,7 +16044,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.576141869907007</v>
+        <v>1.545952833230411</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.18583131622492</v>
@@ -16181,7 +16133,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.577018752326953</v>
+        <v>1.547408823995906</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.603624078221976</v>
@@ -16270,7 +16222,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.570970066808712</v>
+        <v>1.544260157554105</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.581912075781933</v>
@@ -16359,7 +16311,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.574168342205616</v>
+        <v>1.548899746406201</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.57217721099339</v>
@@ -16448,7 +16400,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.580774168135948</v>
+        <v>1.553323234840533</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.438987619931944</v>
@@ -16537,7 +16489,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.598901772535162</v>
+        <v>1.567334495689755</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.326263143496259</v>
@@ -16626,7 +16578,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.602550442797381</v>
+        <v>1.569383762919176</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.347152804859071</v>
@@ -16715,7 +16667,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.595035800503839</v>
+        <v>1.563575010624879</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.097174693782398</v>
@@ -16804,7 +16756,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.606310766050792</v>
+        <v>1.569374851491784</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.273946941862665</v>
@@ -16893,7 +16845,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.607238775009268</v>
+        <v>1.568616405501481</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.284664918237757</v>
@@ -16982,7 +16934,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.606595271371542</v>
+        <v>1.565317964096662</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.318114629472</v>
@@ -17071,7 +17023,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.604679247387524</v>
+        <v>1.564294412189954</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.5631015917914</v>
@@ -17160,7 +17112,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.610787117374844</v>
+        <v>1.571345860878726</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.406120320999073</v>
@@ -17249,7 +17201,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.607607821350517</v>
+        <v>1.571856914848458</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.413985366859706</v>
@@ -17338,7 +17290,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.59158039727005</v>
+        <v>1.561191651608255</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.389295957037728</v>
@@ -17427,7 +17379,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.58815456038396</v>
+        <v>1.556821540646127</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.486399649225809</v>
@@ -17516,7 +17468,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.589797597587872</v>
+        <v>1.561693647255456</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.37228112619906</v>
@@ -17605,7 +17557,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.58667267587301</v>
+        <v>1.557207076678291</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.394081367912008</v>
@@ -17694,7 +17646,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.577949335887304</v>
+        <v>1.553400392882697</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.447519488266051</v>
@@ -17783,7 +17735,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.58464524364286</v>
+        <v>1.556682362067208</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.433807689967826</v>
@@ -17872,7 +17824,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.573429856803682</v>
+        <v>1.54824192939921</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.495072280399301</v>
@@ -17961,7 +17913,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.578384656190554</v>
+        <v>1.552676378030108</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.445327049956395</v>
@@ -18050,7 +18002,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.585283468183799</v>
+        <v>1.555266102537553</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.594292967284521</v>
@@ -18139,7 +18091,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.587177669163371</v>
+        <v>1.558768291431883</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.437224837368456</v>
@@ -18228,7 +18180,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.589581864937318</v>
+        <v>1.560482963296394</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.444721249113401</v>
@@ -18317,7 +18269,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.595311702060852</v>
+        <v>1.565205647891808</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.390990714080812</v>
@@ -18603,7 +18555,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.545663892834056</v>
+        <v>1.511399673014592</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.374140962191488</v>
@@ -18692,7 +18644,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.504420852465951</v>
+        <v>1.476973013494264</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.356491260001549</v>
@@ -18781,7 +18733,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.524036860811866</v>
+        <v>1.493543537116296</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.211526515496697</v>
@@ -18870,7 +18822,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.523501452815396</v>
+        <v>1.496123987793992</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.304454490730548</v>
@@ -18959,7 +18911,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.52584667683689</v>
+        <v>1.501999024579792</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.290211955462015</v>
@@ -19048,7 +19000,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.510297403306367</v>
+        <v>1.490036064395759</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.21721986734733</v>
@@ -19137,7 +19089,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.50253533914887</v>
+        <v>1.478172125537911</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.220377082908465</v>
@@ -19226,7 +19178,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.503599967881132</v>
+        <v>1.479314307198717</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.226456269274355</v>
@@ -19315,7 +19267,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.514306044871798</v>
+        <v>1.489226373610028</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.332251494244795</v>
@@ -19404,7 +19356,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.528932287830022</v>
+        <v>1.505167906013743</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.241930651950288</v>
@@ -19493,7 +19445,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.523941225674692</v>
+        <v>1.503834036726341</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.290249057484629</v>
@@ -19582,7 +19534,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.522577202297063</v>
+        <v>1.502269412933319</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.272730641814951</v>
@@ -19671,7 +19623,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.522709355246108</v>
+        <v>1.503648725831555</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.231040261660886</v>
@@ -19760,7 +19712,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.499843806733534</v>
+        <v>1.483092936905633</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.27249863605116</v>
@@ -19849,7 +19801,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.496180641363494</v>
+        <v>1.487748892013072</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.269041362055714</v>
@@ -19938,7 +19890,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.495277428224454</v>
+        <v>1.487644481243217</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.200587496731739</v>
@@ -20027,7 +19979,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.544746376883229</v>
+        <v>1.526664460604106</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.937627405146142</v>
@@ -20116,7 +20068,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.546457639091954</v>
+        <v>1.532243495515961</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.253342867549485</v>
@@ -20205,7 +20157,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.547059970983695</v>
+        <v>1.522678201365337</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.43593167542267</v>
@@ -20294,7 +20246,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.488568347881902</v>
+        <v>1.483557949152911</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.305053133677503</v>
@@ -20383,7 +20335,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.50162034236983</v>
+        <v>1.496076858282363</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.213608498874715</v>
@@ -20472,7 +20424,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.508979912922784</v>
+        <v>1.5073894123789</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.283366779679079</v>
@@ -20561,7 +20513,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.510759381453935</v>
+        <v>1.507417836222879</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.35847848141144</v>
@@ -20650,7 +20602,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.517734907822505</v>
+        <v>1.515846737232846</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.321260841748052</v>
@@ -20739,7 +20691,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.514315660861513</v>
+        <v>1.504774328702166</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.282960590651952</v>
@@ -20828,7 +20780,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.51358597120037</v>
+        <v>1.502877601319059</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.336486160163216</v>
@@ -20917,7 +20869,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.512556376894257</v>
+        <v>1.504990059627261</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.367021289940323</v>
@@ -21006,7 +20958,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.504259574241116</v>
+        <v>1.494851328395181</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.331054245266216</v>
@@ -21095,7 +21047,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.526788660947322</v>
+        <v>1.515176608021008</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.18926455498164</v>
@@ -21184,7 +21136,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.527531890288362</v>
+        <v>1.512973975395891</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.369871130547117</v>
@@ -21273,7 +21225,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.525904206412762</v>
+        <v>1.509336701017102</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.315212327022244</v>
@@ -21362,7 +21314,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.527073427100408</v>
+        <v>1.510053264415312</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.220072772462616</v>
@@ -21451,7 +21403,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.502709525469972</v>
+        <v>1.48563095918936</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.184441246463592</v>
@@ -21540,7 +21492,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.504198812361416</v>
+        <v>1.487555645457493</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.980329599743303</v>
@@ -21629,7 +21581,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.529933997475222</v>
+        <v>1.510828373182574</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.308511518709083</v>
@@ -21718,7 +21670,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.527964976292908</v>
+        <v>1.503605226342153</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.311904366770086</v>
@@ -21807,7 +21759,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.520332130130779</v>
+        <v>1.49829117589598</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.275345364485652</v>
@@ -21896,7 +21848,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.517021253084547</v>
+        <v>1.494982004359281</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.288978395537423</v>
@@ -21985,7 +21937,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.514263653871763</v>
+        <v>1.492217032324908</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.292859990365977</v>
@@ -22074,7 +22026,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.513945683033622</v>
+        <v>1.495137082930171</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.168237804901096</v>
@@ -22163,7 +22115,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.5116163551138</v>
+        <v>1.490811475162253</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.305809475180304</v>
@@ -22252,7 +22204,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.511437386711694</v>
+        <v>1.492467340916976</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.264079783664041</v>
@@ -22341,7 +22293,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.519434749121127</v>
+        <v>1.501142938823674</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.272279915325921</v>
@@ -22430,7 +22382,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.518076749414329</v>
+        <v>1.500700590124485</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.227033247453261</v>
@@ -22519,7 +22471,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.521941495501758</v>
+        <v>1.507328038170982</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.29793954071554</v>
@@ -22608,7 +22560,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.525948898315256</v>
+        <v>1.514774952227599</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.231504192882941</v>
@@ -22697,7 +22649,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.494346760237392</v>
+        <v>1.480242907942153</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.266545153391124</v>
@@ -22786,7 +22738,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.531369760444601</v>
+        <v>1.515842520659558</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.171060155009512</v>
@@ -22875,7 +22827,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.551527157770668</v>
+        <v>1.531011977054344</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.138682248414107</v>
@@ -22964,7 +22916,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.513879555569198</v>
+        <v>1.496996959137442</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.20227258624926</v>
@@ -23053,7 +23005,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.508968490676897</v>
+        <v>1.495898261557864</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.17159286778648</v>
@@ -23339,7 +23291,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.611441567449389</v>
+        <v>1.579762596151081</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.93548119191326</v>
@@ -23428,7 +23380,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.593016744427146</v>
+        <v>1.565937740137306</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.710410208917177</v>
@@ -23517,7 +23469,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.599109248198367</v>
+        <v>1.5703628171756</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.829881985960563</v>
@@ -23606,7 +23558,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.589048661360243</v>
+        <v>1.559008521278398</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.84991636504384</v>
@@ -23695,7 +23647,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.591992452730348</v>
+        <v>1.562511120020774</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.843602316253992</v>
@@ -23784,7 +23736,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.583083344410138</v>
+        <v>1.555575365350818</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.803684788631545</v>
@@ -23873,7 +23825,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.577826664853953</v>
+        <v>1.54607695614782</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.755818816035152</v>
@@ -23962,7 +23914,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.582461225727319</v>
+        <v>1.551724699762725</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.909247899158899</v>
@@ -24051,7 +24003,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.59238764568669</v>
+        <v>1.561419484558697</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.099801354838988</v>
@@ -24140,7 +24092,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.574305135297202</v>
+        <v>1.545428925968167</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.471875648900181</v>
@@ -24229,7 +24181,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.571444782087492</v>
+        <v>1.5423733597867</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.433342954727062</v>
@@ -24318,7 +24270,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.574200395313892</v>
+        <v>1.544526279115751</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.321034279163471</v>
@@ -24407,7 +24359,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.569684729923695</v>
+        <v>1.536769027078272</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.367639186129355</v>
@@ -24496,7 +24448,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.544132433760318</v>
+        <v>1.509223255846337</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.475548420133432</v>
@@ -24585,7 +24537,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.534699549801728</v>
+        <v>1.513211780394547</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.502612476585423</v>
@@ -24674,7 +24626,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.540455727895498</v>
+        <v>1.521616714458537</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.27727513460468</v>
@@ -24763,7 +24715,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.549203646527902</v>
+        <v>1.525530012159627</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.43802341067238</v>
@@ -24852,7 +24804,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.558257841865613</v>
+        <v>1.529102521434334</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.332315999543237</v>
@@ -24941,7 +24893,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.552564087251666</v>
+        <v>1.526459323174069</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.484646391215219</v>
@@ -25030,7 +24982,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.546313727021731</v>
+        <v>1.521014596053186</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.428204716958794</v>
@@ -25119,7 +25071,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.561105481417327</v>
+        <v>1.532528958504463</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.445755335361329</v>
@@ -25208,7 +25160,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.564082910640158</v>
+        <v>1.537747201839897</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.374918078032412</v>
@@ -25297,7 +25249,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.549086808262436</v>
+        <v>1.521603097798775</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.501146261199692</v>
@@ -25386,7 +25338,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.552475081906791</v>
+        <v>1.529335254987382</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.397613237744299</v>
@@ -25475,7 +25427,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.576222556729805</v>
+        <v>1.546541904504144</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.325123689504373</v>
@@ -25564,7 +25516,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.580822529062654</v>
+        <v>1.554276156943804</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.424482547237355</v>
@@ -25653,7 +25605,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.58397576819472</v>
+        <v>1.558246382628848</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.446655052799215</v>
@@ -25742,7 +25694,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.59201730651273</v>
+        <v>1.56922516586152</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.357462952340001</v>
@@ -25831,7 +25783,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.631757340863941</v>
+        <v>1.594665302351234</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.691285189752681</v>
@@ -25920,7 +25872,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.636400200271111</v>
+        <v>1.597217961701518</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.751299120367451</v>
@@ -26009,7 +25961,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.637169697124489</v>
+        <v>1.59672997880894</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.777427461487143</v>
@@ -26098,7 +26050,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.643898383387936</v>
+        <v>1.607340094665238</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.866270321970519</v>
@@ -26187,7 +26139,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.638261136199155</v>
+        <v>1.610948529596068</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.82959487387278</v>
@@ -26276,7 +26228,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.647348543430631</v>
+        <v>1.617136606640294</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.143144594769155</v>
@@ -26365,7 +26317,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.640267361366176</v>
+        <v>1.610906461693193</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.382835878038226</v>
@@ -26454,7 +26406,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.637733159836427</v>
+        <v>1.605415788083834</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.309121447470422</v>
@@ -26543,7 +26495,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.64846100707115</v>
+        <v>1.613023523805456</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.203413714037552</v>
@@ -26632,7 +26584,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.663196605320685</v>
+        <v>1.627428583537881</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.260586974398889</v>
@@ -26721,7 +26673,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.656244572067731</v>
+        <v>1.621213611431095</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.41315653076287</v>
@@ -26810,7 +26762,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.667522674660657</v>
+        <v>1.628607977808563</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.095337229085288</v>
@@ -26899,7 +26851,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.666346525636886</v>
+        <v>1.629901205294573</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.064811898451171</v>
@@ -26988,7 +26940,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.66589313807581</v>
+        <v>1.626163027644754</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.375130903262203</v>
@@ -27077,7 +27029,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.662508959793858</v>
+        <v>1.624917359122251</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.016391371012887</v>
@@ -27166,7 +27118,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.668051555555913</v>
+        <v>1.634443824864048</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.290583719953667</v>
@@ -27255,7 +27207,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.675920077194489</v>
+        <v>1.641026764068508</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.754431735508693</v>
@@ -27344,7 +27296,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.687084985169573</v>
+        <v>1.651467316101055</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.829661988554721</v>
@@ -27433,7 +27385,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.681788231548072</v>
+        <v>1.648228566274094</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.729804971574232</v>
@@ -27522,7 +27474,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.688777861765899</v>
+        <v>1.649175958894145</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.723506568436858</v>
@@ -27611,7 +27563,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.703363263609944</v>
+        <v>1.65982061357052</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.260805398681204</v>
@@ -27700,7 +27652,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.705025138860283</v>
+        <v>1.66255728505529</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.626849042038627</v>
@@ -27789,7 +27741,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.697468251067642</v>
+        <v>1.660724117183788</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.364000492067851</v>
@@ -28075,7 +28027,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.414350089536975</v>
+        <v>1.379053452731793</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.18968466068754</v>
@@ -28164,7 +28116,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.404604525382713</v>
+        <v>1.369359724552182</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.966720701858548</v>
@@ -28253,7 +28205,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.406720909981324</v>
+        <v>1.37706103741927</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.151100741638876</v>
@@ -28342,7 +28294,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.391840407777302</v>
+        <v>1.36287940400371</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.227392197930899</v>
@@ -28431,7 +28383,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.383585234441699</v>
+        <v>1.352706720419219</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.223114955004564</v>
@@ -28520,7 +28472,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.371895194646768</v>
+        <v>1.343050977858611</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.213763008647414</v>
@@ -28609,7 +28561,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.368722473500905</v>
+        <v>1.336273592006448</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.165667533077064</v>
@@ -28698,7 +28650,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.35176018312845</v>
+        <v>1.328041833934135</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.248466716930503</v>
@@ -28787,7 +28739,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.369958860690142</v>
+        <v>1.344042627373047</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.233617959285552</v>
@@ -28876,7 +28828,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.374605964725813</v>
+        <v>1.349484908840129</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.289679684999257</v>
@@ -28965,7 +28917,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.354625571102936</v>
+        <v>1.328889527423772</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.306600823585488</v>
@@ -29054,7 +29006,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.343656120423036</v>
+        <v>1.320360293627881</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.210955164180251</v>
@@ -29143,7 +29095,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.348996346807832</v>
+        <v>1.327115565064208</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.336178299365676</v>
@@ -29232,7 +29184,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.333407898740026</v>
+        <v>1.306913588801811</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.184849206009488</v>
@@ -29321,7 +29273,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.321612472317155</v>
+        <v>1.306334926298045</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.144940402110865</v>
@@ -29410,7 +29362,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.32607873761502</v>
+        <v>1.312730409065031</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.030214792283288</v>
@@ -29499,7 +29451,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.327988593952885</v>
+        <v>1.312185413485248</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.179730589688961</v>
@@ -29588,7 +29540,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.337014976559515</v>
+        <v>1.319504671970353</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.108649470478546</v>
@@ -29677,7 +29629,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.348043771705137</v>
+        <v>1.332813793982245</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.165189878771831</v>
@@ -29766,7 +29718,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.350152765364265</v>
+        <v>1.336923559579938</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.151276129394538</v>
@@ -29855,7 +29807,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.360003647440282</v>
+        <v>1.3465724060493</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.085694348901085</v>
@@ -29944,7 +29896,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.385080570917196</v>
+        <v>1.372786693483414</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.97448302214236</v>
@@ -30033,7 +29985,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.365787765494773</v>
+        <v>1.353717937285607</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.116999962106394</v>
@@ -30122,7 +30074,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.36709870017617</v>
+        <v>1.356972066422151</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.018993672899967</v>
@@ -30211,7 +30163,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.386979148168593</v>
+        <v>1.375638914324129</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.94529734764675</v>
@@ -30300,7 +30252,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.417108389443896</v>
+        <v>1.405231132421463</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.941334057303184</v>
@@ -30389,7 +30341,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.439683780184872</v>
+        <v>1.431684877094441</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.001075223165005</v>
@@ -30478,7 +30430,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.433812125222659</v>
+        <v>1.423696330730776</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.005590727837548</v>
@@ -30567,7 +30519,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.496856319653432</v>
+        <v>1.479523907367954</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.940900467945058</v>
@@ -30656,7 +30608,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.504044159640965</v>
+        <v>1.482521140345008</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.243844046220931</v>
@@ -30745,7 +30697,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.49579301614553</v>
+        <v>1.473046758061069</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.254952190935263</v>
@@ -30834,7 +30786,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.528855381305794</v>
+        <v>1.5059855027196</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.224676822595435</v>
@@ -30923,7 +30875,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.526284165707256</v>
+        <v>1.502013313705452</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.203358753846606</v>
@@ -31012,7 +30964,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.521075385799619</v>
+        <v>1.49581971680556</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.174800522791825</v>
@@ -31101,7 +31053,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.520790630841834</v>
+        <v>1.497991981322599</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.232796049588955</v>
@@ -31190,7 +31142,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.521694783090684</v>
+        <v>1.495690442698535</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.238563956971953</v>
@@ -31279,7 +31231,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.523555467468994</v>
+        <v>1.496038545350546</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.177701880103222</v>
@@ -31368,7 +31320,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.57019310717049</v>
+        <v>1.52852249992097</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.735829461065152</v>
@@ -31457,7 +31409,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.594963482682976</v>
+        <v>1.549751980553996</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.238362332589853</v>
@@ -31546,7 +31498,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.607793427660264</v>
+        <v>1.558530900822065</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.100983819266337</v>
@@ -31635,7 +31587,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.60289443239283</v>
+        <v>1.551417927396475</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.148423483165308</v>
@@ -31724,7 +31676,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.597810041482862</v>
+        <v>1.546464532886159</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.035834419514562</v>
@@ -31813,7 +31765,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.59928403253362</v>
+        <v>1.551428770670803</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.08356823448365</v>
@@ -31902,7 +31854,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.591898545737879</v>
+        <v>1.548560840243334</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.996808994499036</v>
@@ -31991,7 +31943,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.606268204407869</v>
+        <v>1.55846222360613</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.122695383408143</v>
@@ -32080,7 +32032,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.613814382136286</v>
+        <v>1.565578268347399</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.889986847205847</v>
@@ -32169,7 +32121,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.599491958655337</v>
+        <v>1.550884661571042</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.09044910609156</v>
@@ -32258,7 +32210,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.589764821857054</v>
+        <v>1.542658568171238</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.75954697105637</v>
@@ -32347,7 +32299,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.605275153473586</v>
+        <v>1.55422942692167</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.789915341123434</v>
@@ -32436,7 +32388,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.587856083122103</v>
+        <v>1.539856192011008</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.744379120660223</v>
@@ -32525,7 +32477,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.589131016199055</v>
+        <v>1.54225487147358</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.77481747910205</v>
